--- a/Documents/Schriftliche Testfaelle.xlsx
+++ b/Documents/Schriftliche Testfaelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Dropbox\SS20\SE2\Uebung5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9356A1F-946E-4276-A55E-A0C9192F1AF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7FDB7C-5AF1-43A4-80B3-0817729E7456}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>Stellenanzeige makieren und löschen</t>
   </si>
@@ -359,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,19 +412,19 @@
   </fills>
   <borders count="17">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -437,10 +434,10 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -448,10 +445,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -459,28 +456,28 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -488,10 +485,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -499,12 +496,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -514,12 +511,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -529,12 +526,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -544,12 +541,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -559,12 +556,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -574,12 +571,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -589,12 +586,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -604,12 +601,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="thin">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -619,12 +616,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color auto="1"/>
-      </start>
-      <end style="medium">
-        <color auto="1"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -740,7 +737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,25 +890,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -919,25 +916,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -950,21 +947,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -978,7 +975,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -990,32 +987,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1035,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,8 +1078,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1301,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1347,8 +1344,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1583,8 +1580,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1785,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,8 +1828,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2023,11 +2020,12 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,8 +2071,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2275,11 +2273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,8 +2319,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="d">
-        <v>2020-06-25</v>
+      <c r="D6" s="8">
+        <v>44007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
